--- a/models/result/VQ-VAE-resnet18-test1.xlsx
+++ b/models/result/VQ-VAE-resnet18-test1.xlsx
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
+          <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.722572175656751e-08</v>
+        <v>1.349384365312289e-05</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,11 +474,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
+          <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999769926071167</v>
+        <v>0.9997976422309875</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -490,27 +490,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
+          <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997976422309875</v>
+        <v>1.758636258841761e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
+          <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.372628730678116e-07</v>
+        <v>1.616763256606646e-05</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -522,14 +522,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
+          <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.040455412583469e-08</v>
+        <v>0.9999994039535522</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -538,11 +538,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
+          <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.8744195699691772</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -554,11 +554,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
+          <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.483002591839977e-07</v>
+        <v>1.334302510258567e-06</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -570,11 +570,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
+          <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.020448846451472e-05</v>
+        <v>1.621225154124772e-09</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -586,11 +586,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
+          <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.595455204205791e-08</v>
+        <v>6.249369910449332e-09</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -602,91 +602,91 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
+          <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.726774303191576e-10</v>
+        <v>0.0027135512791574</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
+          <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.925523100496321e-08</v>
+        <v>4.811864684484135e-08</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
+          <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9617998003959656</v>
+        <v>4.671747433349083e-10</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
+          <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.08975292789637e-07</v>
+        <v>8.074108336586505e-06</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
+          <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008629516698420048</v>
+        <v>6.595455204205791e-08</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
+          <t>021-SHZL-00407-FYCH-201902281444-D.bmp</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.007562708109617233</v>
+        <v>0.003215346951037645</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -698,11 +698,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
+          <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.558439376494249e-10</v>
+        <v>8.527761607979301e-09</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -714,27 +714,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
+          <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9954074025154114</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
+          <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03168591856956482</v>
+        <v>0.01959624513983727</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -746,11 +746,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
+          <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009619064629077911</v>
+        <v>1.989183484596424e-09</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -762,14 +762,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>021-SHZL-00407-FYCH-201902281444-D.bmp</t>
+          <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999899864196777</v>
+        <v>8.040455412583469e-08</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
+          <t>021-SHZL-00417-CHY-201903271622-D.bmp</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.003836486954241991</v>
+        <v>0.03102006576955318</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -794,43 +794,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
+          <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.129688813137022e-10</v>
+        <v>0.5808709859848022</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
+          <t>023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9973751306533813</v>
+        <v>1.932589611897129e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
+          <t>021-SHZL-00008-CHZF-201707140943-D.bmp</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.180275432943745e-09</v>
+        <v>1.076506421782142e-07</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -842,30 +842,30 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
+          <t>0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.258876443318798e-10</v>
+        <v>8.722572175656751e-08</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
+          <t>022-TJZL-00034-CHWH-201803261531-D.bmp</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.7624271455079e-08</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -874,27 +874,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
+          <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.266866195281935e-10</v>
+        <v>0.9999217987060547</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
+          <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.542918148800254e-08</v>
+        <v>1.185792299907007e-07</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -906,27 +906,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>028-CDFE-00133-ZHN-201909110834-D.bmp</t>
+          <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.920814311581978e-10</v>
+        <v>0.9997299313545227</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
+          <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.814888794804403e-10</v>
+        <v>1.146835604259877e-08</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -938,11 +938,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
+          <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0003312148037366569</v>
+        <v>1.239130575925174e-09</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -954,11 +954,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>021-SHZL-00420-WZY-201903281525-D.bmp</t>
+          <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.365662338770335e-08</v>
+        <v>3.897458782375907e-07</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -970,11 +970,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
+          <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.758636258841761e-08</v>
+        <v>0.0002228770172223449</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -986,14 +986,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
+          <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>5.439557138053885e-10</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1002,30 +1002,30 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
+          <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9213018417358398</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
+          <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.469645323799341e-07</v>
+        <v>0.6844292283058167</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1034,11 +1034,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
+          <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.108933702198556e-06</v>
+        <v>1.267791843728716e-10</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1050,11 +1050,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
+          <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9981040954589844</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
+          <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.377033930274109e-10</v>
+        <v>0.9997439980506897</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1082,11 +1082,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
+          <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.001195528260723e-06</v>
+        <v>1.496757384700231e-08</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1098,30 +1098,30 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
+          <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.029127183471701e-08</v>
+        <v>0.001160179264843464</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
+          <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>1.964581770153018e-06</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1130,59 +1130,59 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
+          <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.821614810334722e-08</v>
+        <v>0.9999769926071167</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
+          <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.08884705696255e-07</v>
+        <v>4.262674053734372e-07</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
+          <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.657573964867879e-09</v>
+        <v>5.823428637086181e-06</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
+          <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0002228770172223449</v>
+        <v>0.0003627312835305929</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
+          <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6.990471774770413e-06</v>
+        <v>0.7593902349472046</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1210,27 +1210,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
+          <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.279465600134699e-08</v>
+        <v>9.593508210059554e-09</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
+          <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5.527615485334536e-07</v>
+        <v>0.001547967316582799</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1242,11 +1242,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
+          <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.674092642289793e-09</v>
+        <v>6.059650559109286e-09</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1258,59 +1258,59 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
+          <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.044481419716249e-07</v>
+        <v>0.9859710335731506</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
+          <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.5840612053871155</v>
+        <v>0.9999650716781616</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
+          <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.185792299907007e-07</v>
+        <v>0.375390350818634</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
+          <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9999501705169678</v>
+        <v>0.6412609219551086</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1322,43 +1322,43 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
+          <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.186263620667205e-08</v>
+        <v>4.042083112665296e-09</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
+          <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.227138852755161e-07</v>
+        <v>0.9995063543319702</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
+          <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.267791843728716e-10</v>
+        <v>7.7624271455079e-08</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1370,11 +1370,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
+          <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5808709859848022</v>
+        <v>0.998167872428894</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1386,11 +1386,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
+          <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.759072802087758e-05</v>
+        <v>0.001932964427396655</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1402,30 +1402,30 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
+          <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.002734609181061387</v>
+        <v>0.004767681937664747</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
+          <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.671747433349083e-10</v>
+        <v>0.9999995231628418</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1434,43 +1434,43 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
+          <t>0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.242206164737581e-06</v>
+        <v>0.007562708109617233</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
+          <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.255275909941346e-11</v>
+        <v>2.242206164737581e-06</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
+          <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2434944212436676</v>
+        <v>4.280401588729887e-10</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1482,14 +1482,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
+          <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9999998807907104</v>
+        <v>2.362589235360701e-08</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1498,46 +1498,46 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
+          <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.21732293034438e-05</v>
+        <v>5.375307310373501e-08</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
+          <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.239682744820115e-10</v>
+        <v>3.710139253598754e-06</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
+          <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.5733030438423157</v>
+        <v>1.954296635631181e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
+          <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1556,49 +1556,49 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
+          <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.6832480430603027</v>
+        <v>8.174975363317571e-08</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
+          <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6.004347596899606e-06</v>
+        <v>6.626513368246378e-06</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
+          <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.822987205635229e-09</v>
+        <v>1.698928713267378e-07</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1610,14 +1610,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>021-SHZL-00034-WCX-201708170934-D.bmp</t>
+          <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.6673140525817871</v>
+        <v>0.0003312148037366569</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1626,11 +1626,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
+          <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.964581770153018e-06</v>
+        <v>4.450856572191242e-09</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1642,14 +1642,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
+          <t>028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.616763256606646e-05</v>
+        <v>0.5606508851051331</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1658,11 +1658,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
+          <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0003627312835305929</v>
+        <v>7.525920442397194e-10</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1674,11 +1674,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
+          <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.272355624834745e-08</v>
+        <v>2.511779939595726e-08</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1690,43 +1690,43 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
+          <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.927090119759669e-08</v>
+        <v>8.781745997055168e-09</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>021-SHZL-00417-CHY-201903271622-D.bmp</t>
+          <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.003626442747190595</v>
+        <v>1.605414610139633e-07</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
+          <t>021-SHZL-00313-CHXX-201808301117-D.bmp</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.405209329481295e-07</v>
+        <v>1.132259619396336e-09</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1738,14 +1738,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
+          <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9989425539970398</v>
+        <v>9.890446239779749e-10</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1754,27 +1754,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
+          <t>0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.998167872428894</v>
+        <v>1.89387652227424e-08</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
+          <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.000294669036520645</v>
+        <v>2.357237249839272e-08</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1786,30 +1786,30 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
+          <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.219218409038604e-08</v>
+        <v>1.814888794804403e-10</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
+          <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.811864684484135e-08</v>
+        <v>0.9337931871414185</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1818,75 +1818,75 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
+          <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.170664880120967e-08</v>
+        <v>0.999996542930603</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>023-CHQSY-00005-TDH-201804081845-D.bmp</t>
+          <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1703645437955856</v>
+        <v>1.123749825637788e-05</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
+          <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.004090788774192333</v>
+        <v>0.9998157620429993</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
+          <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6.401087659924087e-08</v>
+        <v>9.956509394726254e-09</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
+          <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001099981600418687</v>
+        <v>1.031192624623145e-07</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1898,46 +1898,46 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
+          <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.042083112665296e-09</v>
+        <v>0.001059865113347769</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
+          <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.358708338259021e-06</v>
+        <v>1.08975292789637e-07</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
+          <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5.823428637086181e-06</v>
+        <v>0.9999994039535522</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1946,59 +1946,59 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
+          <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9337931871414185</v>
+        <v>2.405209329481295e-07</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
+          <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.001059865113347769</v>
+        <v>1.183054365583303e-07</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
+          <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01959624513983727</v>
+        <v>0.003933994565159082</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
+          <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>6.310721801128238e-06</v>
+        <v>0.1155986189842224</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -2010,46 +2010,46 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
+          <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0002396281342953444</v>
+        <v>2.272698473859691e-09</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
+          <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3.710139253598754e-06</v>
+        <v>8.276278151697625e-08</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
+          <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>6.222422962309793e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2058,11 +2058,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
+          <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.021412633974485e-11</v>
+        <v>2.044481419716249e-07</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -2074,62 +2074,62 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
+          <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>9.73340320342686e-07</v>
+        <v>2.594675307943106e-10</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
+          <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.990649479921558e-06</v>
+        <v>4.170664880120967e-08</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
+          <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.008173343725502491</v>
+        <v>0.2528167366981506</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
+          <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9985224604606628</v>
+        <v>0.004396638367325068</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2138,11 +2138,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
+          <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.239130575925174e-09</v>
+        <v>1.542918148800254e-08</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -2154,27 +2154,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
+          <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.4826384782791138</v>
+        <v>0.01044411584734917</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
+          <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1.621225154124772e-09</v>
+        <v>0.00286716828122735</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -2186,14 +2186,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
+          <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.811362011494566e-07</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -2202,11 +2202,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
+          <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9687855839729309</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -2218,11 +2218,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
+          <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.4073357880115509</v>
+        <v>1.019656792777823e-05</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -2234,27 +2234,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
+          <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6.059650559109286e-09</v>
+        <v>0.9407174587249756</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
+          <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.24558170000455e-07</v>
+        <v>1.227138852755161e-07</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -2266,14 +2266,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
+          <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>5.965753047121325e-08</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2282,27 +2282,27 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
+          <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.001932964427396655</v>
+        <v>2.136848934242153e-06</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
+          <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.01044411584734917</v>
+        <v>8.103597654018913e-11</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -2314,14 +2314,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
+          <t>0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.5606508851051331</v>
+        <v>1.08884705696255e-07</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -2330,30 +2330,30 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
+          <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.855884867538407e-07</v>
+        <v>0.008629516698420048</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
+          <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2.837578722392209e-05</v>
+        <v>0.5840612053871155</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2362,30 +2362,30 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
+          <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.001160179264843464</v>
+        <v>0.0001819454191718251</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
+          <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9999995231628418</v>
+        <v>0.001460130559280515</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2394,11 +2394,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
+          <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1.008832795079684e-09</v>
+        <v>4.40174865445897e-08</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2410,46 +2410,46 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
+          <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0.9856970310211182</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
+          <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>6.301016153287264e-09</v>
+        <v>8.687037916388363e-05</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
+          <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1.019656792777823e-05</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2458,11 +2458,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
+          <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.438043655850208e-10</v>
+        <v>6.301016153287264e-09</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2474,11 +2474,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
+          <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>9.890446239779749e-10</v>
+        <v>9.821614810334722e-08</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2490,11 +2490,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
+          <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1.796114701413387e-09</v>
+        <v>2.438043655850208e-10</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2506,11 +2506,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
+          <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.05509914085268974</v>
+        <v>6.401087659924087e-08</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2522,14 +2522,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
+          <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1.954296635631181e-08</v>
+        <v>0.999980092048645</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -2538,43 +2538,43 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
+          <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>8.954431905294769e-06</v>
+        <v>0.9956112504005432</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
+          <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5.439557138053885e-10</v>
+        <v>2.020448846451472e-05</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
+          <t>021-SHZL-00034-WCX-201708170934-D.bmp</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3.720575181276331e-09</v>
+        <v>1.130391228798544e-05</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2586,11 +2586,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>021-SHZL-00008-CHZF-201707140943-D.bmp</t>
+          <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1.076506421782142e-07</v>
+        <v>6.990471774770413e-06</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
+          <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3.241159720346332e-05</v>
+        <v>0.9999712705612183</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2634,27 +2634,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
+          <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.136848934242153e-06</v>
+        <v>4.80975401728756e-08</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
+          <t>028-CDFE-00133-ZHN-201909110834-D.bmp</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>9.605665596268409e-09</v>
+        <v>4.920814311581978e-10</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2666,30 +2666,30 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
+          <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0001695872488198802</v>
+        <v>0.0002720674674492329</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
+          <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.5730863809585571</v>
+        <v>3.927090119759669e-08</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -2698,27 +2698,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
+          <t>029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2.272698473859691e-09</v>
+        <v>2.950597322026738e-09</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
+          <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1.171256735688075e-05</v>
+        <v>0.0002396281342953444</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2730,11 +2730,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
+          <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>8.527761607979301e-09</v>
+        <v>0.0005671727121807635</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2746,46 +2746,46 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
+          <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1.989183484596424e-09</v>
+        <v>1.171256735688075e-05</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
+          <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>6.941889296285808e-05</v>
+        <v>1.499989643605204e-08</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
+          <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>8.174975363317571e-08</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -2794,11 +2794,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
+          <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>9.196029714075848e-05</v>
+        <v>4.142838155862805e-11</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
+          <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.9987234473228455</v>
+        <v>0.0003115114523097873</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2826,43 +2826,43 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
+          <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>8.074108336586505e-06</v>
+        <v>1.694569391474943e-06</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>021-SHZL-00140-MCP-201803230955-D.bmp</t>
+          <t>0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.05945475772023201</v>
+        <v>0.9985224604606628</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
+          <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4.142838155862805e-11</v>
+        <v>9.737379514263012e-06</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2874,27 +2874,27 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
+          <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.999890923500061</v>
+        <v>0.9697759747505188</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
+          <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2.362589235360701e-08</v>
+        <v>0.1996151208877563</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2906,62 +2906,62 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
+          <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2.968178705486935e-06</v>
+        <v>0.9996005892753601</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
+          <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>3.720575181276331e-09</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
+          <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0.02437714859843254</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
+          <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.6556055545806885</v>
+        <v>1.180275432943745e-09</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -2970,11 +2970,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
+          <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>9.593508210059554e-09</v>
+        <v>9.175120385673807e-11</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2986,11 +2986,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
+          <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>4.280401588729887e-10</v>
+        <v>2.239682744820115e-10</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -3002,11 +3002,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
+          <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1.89387652227424e-08</v>
+        <v>2.066448878679239e-08</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -3018,11 +3018,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
+          <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0005671727121807635</v>
+        <v>3.85317653126549e-05</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -3034,11 +3034,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
+          <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>8.781745997055168e-09</v>
+        <v>0.04191344603896141</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -3050,11 +3050,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
+          <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4.450856572191242e-09</v>
+        <v>0.02779591828584671</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -3066,11 +3066,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
+          <t>029-XAJD-00070-LY-201806130921-D.bmp</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0001819454191718251</v>
+        <v>3.720731056588988e-09</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -3082,11 +3082,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
+          <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.07813117653131485</v>
+        <v>0.4826384782791138</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -3098,11 +3098,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
+          <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.0003115114523097873</v>
+        <v>1.186263620667205e-08</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -3114,14 +3114,14 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
+          <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2.357237249839272e-08</v>
+        <v>0.9981040954589844</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3130,11 +3130,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
+          <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0.9987234473228455</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -3146,27 +3146,27 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
+          <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>6.249369910449332e-09</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
+          <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>8.103597654018913e-11</v>
+        <v>4.281293985997081e-09</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -3178,14 +3178,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
+          <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>2.837578722392209e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -3194,11 +3194,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>029-XAJD-00070-LY-201806130921-D.bmp</t>
+          <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>3.720731056588988e-09</v>
+        <v>2.397918663632481e-08</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -3210,59 +3210,59 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
+          <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>8.276278151697625e-08</v>
+        <v>1.759072802087758e-05</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
+          <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1.518745307294012e-08</v>
+        <v>0.5500097274780273</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
+          <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1.619433476207632e-08</v>
+        <v>9.258876443318798e-10</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
+          <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1.932589611897129e-06</v>
+        <v>1.372628730678116e-07</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -3274,30 +3274,30 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
+          <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.9999995231628418</v>
+        <v>0.9954074025154114</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
+          <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.9180179834365845</v>
+        <v>2.278841648717389e-08</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -3306,14 +3306,14 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
+          <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2.065687141339367e-07</v>
+        <v>0.9999953508377075</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -3322,30 +3322,30 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
+          <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5.438909056465491e-08</v>
+        <v>2.219218409038604e-08</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
+          <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.9996459484100342</v>
+        <v>9.789054900011251e-08</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -3354,75 +3354,75 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
+          <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>8.236597515143274e-11</v>
+        <v>8.844895091897342e-07</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>021-SHZL-00313-CHXX-201808301117-D.bmp</t>
+          <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0.002734609181061387</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
+          <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2.511779939595726e-08</v>
+        <v>0.1848631948232651</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
+          <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.9999994039535522</v>
+        <v>6.941889296285808e-05</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>023-CHQSY-00014-WJ-201807060916-D.bmp</t>
+          <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4.27101909394878e-08</v>
+        <v>1.24558170000455e-07</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
+          <t>021-SHZL-00428-LSM-201905211048-D.bmp</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.9859710335731506</v>
+        <v>2.295402191521134e-05</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -3450,27 +3450,27 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
+          <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>5.604656294622146e-09</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
+          <t>023-CHQSY-00005-TDH-201804081845-D.bmp</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.4574315249919891</v>
+        <v>3.694867416470515e-07</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -3482,30 +3482,30 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>022-TJZL-00083-LWY-201811141417-D.bmp</t>
+          <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>1.419007617187162e-06</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
+          <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.9999949932098389</v>
+        <v>1.266866195281935e-10</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -3514,30 +3514,30 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
+          <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2.042707819782663e-05</v>
+        <v>0.001099981600418687</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
+          <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.9999994039535522</v>
+        <v>9.886935004033148e-07</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -3546,43 +3546,43 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
+          <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.02437714859843254</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
+          <t>0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.02779591828584671</v>
+        <v>1.619433476207632e-08</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
+          <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1.146835604259877e-08</v>
+        <v>5.720405052422883e-11</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3594,27 +3594,27 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
+          <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.04191344603896141</v>
+        <v>0.9996459484100342</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
+          <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1.265017091078846e-09</v>
+        <v>0.003723797155544162</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3626,14 +3626,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
+          <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1.419007617187162e-06</v>
+        <v>0.9999970197677612</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -3642,27 +3642,27 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
+          <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1.125391736422898e-05</v>
+        <v>7.069701768447345e-11</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
+          <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1.786955726856831e-05</v>
+        <v>1.483002591839977e-07</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -3674,59 +3674,59 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
+          <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.6844292283058167</v>
+        <v>3.377033930274109e-10</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
+          <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>9.737379514263012e-06</v>
+        <v>0.9991856217384338</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>021-SHZL-00070-CHJF-201710231512-D.bmp</t>
+          <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>1.495073931323532e-08</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
+          <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1.605414610139633e-07</v>
+        <v>0.03168591856956482</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3738,30 +3738,30 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>021-SHZL-00428-LSM-201905211048-D.bmp</t>
+          <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2.295402191521134e-05</v>
+        <v>0.8850810527801514</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
+          <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.04187201336026192</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -3770,75 +3770,75 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
+          <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.9997299313545227</v>
+        <v>1.001195528260723e-06</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
+          <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.9999990463256836</v>
+        <v>3.021412633974485e-11</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
+          <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1.074258398148231e-05</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
+          <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>9.53498727085389e-07</v>
+        <v>0.05509914085268974</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
+          <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2.950597322026738e-09</v>
+        <v>4.598787839427132e-08</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3850,14 +3850,14 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
+          <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.9999948740005493</v>
+        <v>1.008832795079684e-09</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -3866,11 +3866,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
+          <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6.626513368246378e-06</v>
+        <v>3.255275909941346e-11</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -3882,11 +3882,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
+          <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.9999970197677612</v>
+        <v>0.9989425539970398</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -3898,75 +3898,75 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
+          <t>0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4.262674053734372e-07</v>
+        <v>0.4574315249919891</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
+          <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.9999930858612061</v>
+        <v>1.265017091078846e-09</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
+          <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.005198560655117035</v>
+        <v>1.822987205635229e-09</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
+          <t>021-SHZL-00140-MCP-201803230955-D.bmp</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.9697759747505188</v>
+        <v>0.05945475772023201</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>021-SHZL-00430-LJL-201905221045-D.bmp</t>
+          <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.9990969896316528</v>
+        <v>0.9213018417358398</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -3978,11 +3978,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
+          <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.00286716828122735</v>
+        <v>1.811362011494566e-07</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -3994,62 +3994,62 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
+          <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1.495073931323532e-08</v>
+        <v>0.9999930858612061</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
+          <t>021-SHZL-00070-CHJF-201710231512-D.bmp</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.0005573180387727916</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
+          <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.9991856217384338</v>
+        <v>4.129688813137022e-10</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>022-TJZL-00034-CHWH-201803261531-D.bmp</t>
+          <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>4.098243948646996e-07</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -4058,27 +4058,27 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
+          <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.1848631948232651</v>
+        <v>5.438909056465491e-08</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
+          <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.9999995231628418</v>
+        <v>0.9988937973976135</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -4090,11 +4090,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
+          <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2.594675307943106e-10</v>
+        <v>3.558439376494249e-10</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -4106,43 +4106,43 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
+          <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.000228295466513373</v>
+        <v>7.208579336293042e-05</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
+          <t>021-SHZL-00430-LJL-201905221045-D.bmp</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>5.720405052422883e-11</v>
+        <v>0.9990969896316528</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
+          <t>021-SHZL-00420-WZY-201903281525-D.bmp</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>5.464675467692359e-08</v>
+        <v>1.365662338770335e-08</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -4154,30 +4154,30 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
+          <t>022-TJZL-00083-LWY-201811141417-D.bmp</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3.85317653126549e-05</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
+          <t>023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2.475319282879695e-09</v>
+        <v>0.9999996423721313</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -4186,14 +4186,14 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
+          <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.999980092048645</v>
+        <v>1.786955726856831e-05</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
@@ -4202,11 +4202,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
+          <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.04187201336026192</v>
+        <v>8.726774303191576e-10</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -4218,14 +4218,14 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
+          <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.9999953508377075</v>
+        <v>0.000228295466513373</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -4234,59 +4234,59 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
+          <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1.031192624623145e-07</v>
+        <v>5.109827672100664e-09</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
+          <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.8744195699691772</v>
+        <v>2.475319282879695e-09</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
+          <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.001460130559280515</v>
+        <v>0.6832480430603027</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
+          <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4.281293985997081e-09</v>
+        <v>1.286551282175807e-10</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -4298,27 +4298,27 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
+          <t>023-CHQSY-00014-WJ-201807060916-D.bmp</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.5500097274780273</v>
+        <v>1.234691193729986e-08</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
+          <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1.286551282175807e-10</v>
+        <v>1.029127183471701e-08</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -4330,11 +4330,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
+          <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>9.789054900011251e-08</v>
+        <v>3.241159720346332e-05</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -4346,11 +4346,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
+          <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0.9974026083946228</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -4362,27 +4362,27 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
+          <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>7.525920442397194e-10</v>
+        <v>0.1303207576274872</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
+          <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>9.956509394726254e-09</v>
+        <v>0.000294669036520645</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -4394,14 +4394,14 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
+          <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2.066448878679239e-08</v>
+        <v>0.9998252987861633</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -4410,11 +4410,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
+          <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>3.09894716110648e-07</v>
+        <v>9.196029714075848e-05</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -4426,14 +4426,14 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
+          <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.9956112504005432</v>
+        <v>1.990649479921558e-06</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -4442,46 +4442,46 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
+          <t>0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.9999994039535522</v>
+        <v>8.236597515143274e-11</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
+          <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>9.886935004033148e-07</v>
+        <v>1.074258398148231e-05</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
+          <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2.278841648717389e-08</v>
+        <v>0.9999949932098389</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -4490,11 +4490,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
+          <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1.496757384700231e-08</v>
+        <v>0.008173343725502491</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -4506,27 +4506,27 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
+          <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>5.965753047121325e-08</v>
+        <v>0.07813117653131485</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
+          <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>4.40174865445897e-08</v>
+        <v>2.065687141339367e-07</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -4538,27 +4538,27 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
+          <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1.944916948559694e-05</v>
+        <v>1.259810574083531e-06</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
+          <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1.698928713267378e-07</v>
+        <v>1.108932679017016e-06</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -4570,11 +4570,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
+          <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1.694570983090671e-06</v>
+        <v>0.0005573177477344871</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -4586,11 +4586,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>021-SHZL-00006-WL-201707140849-D.bmp</t>
+          <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>8.878242852006224e-07</v>
+        <v>2.968178705486935e-06</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -4602,27 +4602,27 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
+          <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>9.534979312775249e-07</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
+          <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>7.069701768447345e-11</v>
+        <v>1.94491494767135e-05</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -4634,30 +4634,30 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
+          <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.9999712705612183</v>
+        <v>0.0001695873943390325</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
+          <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.375390499830246</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D264" t="n">
         <v>1</v>
@@ -4666,7 +4666,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
+          <t>0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -4676,17 +4676,17 @@
         <v>1</v>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
+          <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>6.222422962309793e-05</v>
+        <v>1.674092642289793e-09</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -4698,14 +4698,14 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
+          <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.0002720677002798766</v>
+        <v>0.9687855839729309</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
@@ -4714,30 +4714,30 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
+          <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.003933990839868784</v>
+        <v>1.518742465123069e-08</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
+          <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>2.956840717160958e-06</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D269" t="n">
         <v>1</v>
@@ -4746,78 +4746,78 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
+          <t>021-SHZL-00006-WL-201707140849-D.bmp</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>8.687037916388363e-05</v>
+        <v>8.878242852006224e-07</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
+          <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.9988937973976135</v>
+        <v>8.86390161269901e-09</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
+          <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>6.34951469180578e-09</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
+          <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.00271354871802032</v>
+        <v>6.310721801128238e-06</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
+          <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.130320817232132</v>
+        <v>0.9998375177383423</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274" t="n">
         <v>1</v>
@@ -4826,11 +4826,11 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
+          <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.1155985966324806</v>
+        <v>1.796114701413387e-09</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -4842,11 +4842,11 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
+          <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>2.397918663632481e-08</v>
+        <v>4.272355624834745e-08</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
